--- a/OpsAndMats/Model40.xlsx
+++ b/OpsAndMats/Model40.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4675" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4675" uniqueCount="545">
   <si>
     <t>Item</t>
   </si>
@@ -959,7 +959,7 @@
     <t>Washer, Split Lock, Med, 3/8, Pl. Stl.</t>
   </si>
   <si>
-    <t>Nut, ASF full, 3/8-16, Pl. Stl.</t>
+    <t>Hex Nut, full, 3/8-16, Pl. Stl.</t>
   </si>
   <si>
     <t>HHCS, 3/8-16, 1, Pl. Stl.</t>
@@ -974,7 +974,7 @@
     <t>Washer, Split Lock, Med, ¼, Pl. Stl.</t>
   </si>
   <si>
-    <t>Nut, ASF full, ¼-20, Pl. Stl.</t>
+    <t>Hex Nut, full, ¼-20, Pl. Stl.</t>
   </si>
   <si>
     <t>HHCS, ¼-20, 3/4, Pl. Stl.</t>
@@ -1043,7 +1043,7 @@
     <t>HHCS, 3/8-16, 1 1/4, St. Stl.</t>
   </si>
   <si>
-    <t>Nut, ASF full, 3/8-16, St. Stl.</t>
+    <t>Hex Nut, full, 3/8-16, St. Stl.</t>
   </si>
   <si>
     <t>Nylon tube, 5/16"OD x .232"ID blk, flex</t>
@@ -1478,10 +1478,13 @@
     <t>IN</t>
   </si>
   <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>g</t>
-  </si>
-  <si>
-    <t>SF</t>
   </si>
   <si>
     <t>Use Fixed Schedule</t>
@@ -6824,7 +6827,7 @@
         <v>8</v>
       </c>
       <c r="S58">
-        <v>40</v>
+        <v>0.0625</v>
       </c>
       <c r="T58" t="s">
         <v>484</v>
@@ -6990,7 +6993,7 @@
         <v>8</v>
       </c>
       <c r="S60">
-        <v>5</v>
+        <v>0.0625</v>
       </c>
       <c r="T60" t="s">
         <v>484</v>
@@ -7156,7 +7159,7 @@
         <v>8</v>
       </c>
       <c r="S62">
-        <v>15</v>
+        <v>0.0625</v>
       </c>
       <c r="T62" t="s">
         <v>484</v>
@@ -7571,7 +7574,7 @@
         <v>8</v>
       </c>
       <c r="S67">
-        <v>33</v>
+        <v>0.0625</v>
       </c>
       <c r="T67" t="s">
         <v>484</v>
@@ -7986,7 +7989,7 @@
         <v>8</v>
       </c>
       <c r="S72">
-        <v>33</v>
+        <v>0.0625</v>
       </c>
       <c r="T72" t="s">
         <v>484</v>
@@ -8567,7 +8570,7 @@
         <v>8</v>
       </c>
       <c r="S79">
-        <v>30</v>
+        <v>0.0625</v>
       </c>
       <c r="T79" t="s">
         <v>484</v>
@@ -11976,7 +11979,7 @@
         <v>484</v>
       </c>
       <c r="U120" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -13802,7 +13805,7 @@
         <v>484</v>
       </c>
       <c r="U142" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="V142">
         <v>0</v>
@@ -15628,7 +15631,7 @@
         <v>484</v>
       </c>
       <c r="U164" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="V164">
         <v>0</v>
@@ -15711,7 +15714,7 @@
         <v>484</v>
       </c>
       <c r="U165" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="V165">
         <v>0</v>
@@ -16624,7 +16627,7 @@
         <v>484</v>
       </c>
       <c r="U176" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="V176">
         <v>0</v>
@@ -16707,7 +16710,7 @@
         <v>484</v>
       </c>
       <c r="U177" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="V177">
         <v>0</v>
@@ -16784,7 +16787,7 @@
         <v>8</v>
       </c>
       <c r="S178">
-        <v>50</v>
+        <v>0.0625</v>
       </c>
       <c r="T178" t="s">
         <v>484</v>
@@ -25748,7 +25751,7 @@
         <v>8</v>
       </c>
       <c r="S286">
-        <v>20</v>
+        <v>0.0625</v>
       </c>
       <c r="T286" t="s">
         <v>484</v>
@@ -25914,7 +25917,7 @@
         <v>8</v>
       </c>
       <c r="S288">
-        <v>20</v>
+        <v>0.0625</v>
       </c>
       <c r="T288" t="s">
         <v>484</v>
@@ -26080,7 +26083,7 @@
         <v>8</v>
       </c>
       <c r="S290">
-        <v>20</v>
+        <v>0.0625</v>
       </c>
       <c r="T290" t="s">
         <v>484</v>
@@ -26246,7 +26249,7 @@
         <v>8</v>
       </c>
       <c r="S292">
-        <v>10</v>
+        <v>0.0625</v>
       </c>
       <c r="T292" t="s">
         <v>484</v>
@@ -26412,7 +26415,7 @@
         <v>8</v>
       </c>
       <c r="S294">
-        <v>10</v>
+        <v>0.0625</v>
       </c>
       <c r="T294" t="s">
         <v>484</v>
@@ -26499,61 +26502,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -26562,64 +26565,64 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -26642,19 +26645,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -26687,28 +26690,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH2" t="s">
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -26752,19 +26755,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -26797,28 +26800,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH3" t="s">
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -26862,19 +26865,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -26907,28 +26910,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH4" t="s">
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -26972,19 +26975,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -27017,28 +27020,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH5" t="s">
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -27073,28 +27076,28 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -27127,28 +27130,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -27183,28 +27186,28 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -27237,28 +27240,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH7" t="s">
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -27293,28 +27296,28 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -27347,28 +27350,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH8" t="s">
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -27403,28 +27406,28 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -27457,28 +27460,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH9" t="s">
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -27522,19 +27525,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -27567,28 +27570,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH10" t="s">
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -27632,19 +27635,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -27677,28 +27680,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH11" t="s">
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK11" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -27733,28 +27736,28 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H12" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -27787,28 +27790,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK12" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -27843,28 +27846,28 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H13" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -27897,28 +27900,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH13" t="s">
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -27953,28 +27956,28 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H14" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -28007,28 +28010,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH14" t="s">
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -28063,28 +28066,28 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H15" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -28117,28 +28120,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG15" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH15" t="s">
         <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -28182,19 +28185,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -28227,28 +28230,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -28292,19 +28295,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -28337,28 +28340,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN17" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -28393,28 +28396,28 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H18" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -28447,28 +28450,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG18" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH18" t="s">
         <v>0</v>
       </c>
       <c r="AI18" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN18" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -28503,28 +28506,28 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H19" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -28557,28 +28560,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG19" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH19" t="s">
         <v>0</v>
       </c>
       <c r="AI19" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK19" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN19" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -28613,28 +28616,28 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H20" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -28667,28 +28670,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG20" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH20" t="s">
         <v>0</v>
       </c>
       <c r="AI20" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK20" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN20" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -28723,28 +28726,28 @@
         <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H21" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -28777,28 +28780,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG21" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH21" t="s">
         <v>0</v>
       </c>
       <c r="AI21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK21" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -28842,19 +28845,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L22">
         <v>0.5</v>
       </c>
       <c r="M22" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P22">
         <v>0.5</v>
@@ -28887,28 +28890,28 @@
         <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG22" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH22" t="s">
         <v>0</v>
       </c>
       <c r="AI22" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK22" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN22" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -28952,19 +28955,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L23">
         <v>0.5</v>
       </c>
       <c r="M23" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P23">
         <v>0.5</v>
@@ -28997,28 +29000,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG23" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH23" t="s">
         <v>0</v>
       </c>
       <c r="AI23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN23" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -29053,28 +29056,28 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H24" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P24">
         <v>0.5</v>
@@ -29107,28 +29110,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH24" t="s">
         <v>0</v>
       </c>
       <c r="AI24" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN24" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -29172,19 +29175,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P25">
         <v>0.5</v>
@@ -29217,28 +29220,28 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG25" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH25" t="s">
         <v>0</v>
       </c>
       <c r="AI25" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK25" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN25" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -29282,19 +29285,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L26">
         <v>0.5</v>
       </c>
       <c r="M26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P26">
         <v>0.5</v>
@@ -29327,28 +29330,28 @@
         <v>1</v>
       </c>
       <c r="AE26" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG26" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH26" t="s">
         <v>0</v>
       </c>
       <c r="AI26" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK26" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN26" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -29383,28 +29386,28 @@
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H27" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L27">
         <v>0.5</v>
       </c>
       <c r="M27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P27">
         <v>0.5</v>
@@ -29437,28 +29440,28 @@
         <v>1</v>
       </c>
       <c r="AE27" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG27" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH27" t="s">
         <v>0</v>
       </c>
       <c r="AI27" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK27" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN27" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -29502,19 +29505,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L28">
         <v>0.5</v>
       </c>
       <c r="M28" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P28">
         <v>0.5</v>
@@ -29547,28 +29550,28 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH28" t="s">
         <v>0</v>
       </c>
       <c r="AI28" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK28" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -29612,19 +29615,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L29">
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P29">
         <v>0.5</v>
@@ -29657,28 +29660,28 @@
         <v>1</v>
       </c>
       <c r="AE29" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG29" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH29" t="s">
         <v>0</v>
       </c>
       <c r="AI29" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK29" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN29" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -29713,28 +29716,28 @@
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H30" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L30">
         <v>0.5</v>
       </c>
       <c r="M30" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P30">
         <v>0.5</v>
@@ -29767,28 +29770,28 @@
         <v>1</v>
       </c>
       <c r="AE30" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG30" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH30" t="s">
         <v>0</v>
       </c>
       <c r="AI30" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK30" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -29832,19 +29835,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L31">
         <v>0.5</v>
       </c>
       <c r="M31" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P31">
         <v>0.5</v>
@@ -29877,28 +29880,28 @@
         <v>1</v>
       </c>
       <c r="AE31" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG31" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH31" t="s">
         <v>0</v>
       </c>
       <c r="AI31" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK31" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN31" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -29942,19 +29945,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L32">
         <v>0.5</v>
       </c>
       <c r="M32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P32">
         <v>0.5</v>
@@ -29987,28 +29990,28 @@
         <v>1</v>
       </c>
       <c r="AE32" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG32" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH32" t="s">
         <v>0</v>
       </c>
       <c r="AI32" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK32" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN32" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -30043,28 +30046,28 @@
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H33" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L33">
         <v>0.5</v>
       </c>
       <c r="M33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P33">
         <v>0.5</v>
@@ -30097,28 +30100,28 @@
         <v>1</v>
       </c>
       <c r="AE33" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG33" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH33" t="s">
         <v>0</v>
       </c>
       <c r="AI33" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN33" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -30153,28 +30156,28 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H34" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L34">
         <v>0.5</v>
       </c>
       <c r="M34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P34">
         <v>0.5</v>
@@ -30207,28 +30210,28 @@
         <v>1</v>
       </c>
       <c r="AE34" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG34" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH34" t="s">
         <v>0</v>
       </c>
       <c r="AI34" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK34" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN34" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -30263,28 +30266,28 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H35" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L35">
         <v>0.5</v>
       </c>
       <c r="M35" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P35">
         <v>0.5</v>
@@ -30317,28 +30320,28 @@
         <v>1</v>
       </c>
       <c r="AE35" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG35" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH35" t="s">
         <v>0</v>
       </c>
       <c r="AI35" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK35" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN35" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -30382,19 +30385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L36">
         <v>0.5</v>
       </c>
       <c r="M36" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P36">
         <v>0.5</v>
@@ -30427,28 +30430,28 @@
         <v>1</v>
       </c>
       <c r="AE36" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG36" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH36" t="s">
         <v>0</v>
       </c>
       <c r="AI36" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK36" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL36">
         <v>0</v>
       </c>
       <c r="AM36" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN36" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -30483,28 +30486,28 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H37" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L37">
         <v>0.5</v>
       </c>
       <c r="M37" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P37">
         <v>0.5</v>
@@ -30537,28 +30540,28 @@
         <v>1</v>
       </c>
       <c r="AE37" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG37" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH37" t="s">
         <v>0</v>
       </c>
       <c r="AI37" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK37" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL37">
         <v>0</v>
       </c>
       <c r="AM37" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN37" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -30593,28 +30596,28 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H38" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L38">
         <v>0.5</v>
       </c>
       <c r="M38" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P38">
         <v>0.5</v>
@@ -30647,28 +30650,28 @@
         <v>1</v>
       </c>
       <c r="AE38" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG38" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH38" t="s">
         <v>0</v>
       </c>
       <c r="AI38" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK38" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL38">
         <v>0</v>
       </c>
       <c r="AM38" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN38" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO38">
         <v>0</v>
@@ -30703,28 +30706,28 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H39" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L39">
         <v>0.5</v>
       </c>
       <c r="M39" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P39">
         <v>0.5</v>
@@ -30757,28 +30760,28 @@
         <v>1</v>
       </c>
       <c r="AE39" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG39" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH39" t="s">
         <v>0</v>
       </c>
       <c r="AI39" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK39" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL39">
         <v>0</v>
       </c>
       <c r="AM39" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN39" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -30822,19 +30825,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L40">
         <v>0.5</v>
       </c>
       <c r="M40" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P40">
         <v>0.5</v>
@@ -30867,28 +30870,28 @@
         <v>1</v>
       </c>
       <c r="AE40" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG40" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH40" t="s">
         <v>0</v>
       </c>
       <c r="AI40" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK40" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL40">
         <v>0</v>
       </c>
       <c r="AM40" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN40" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -30923,28 +30926,28 @@
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H41" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L41">
         <v>0.5</v>
       </c>
       <c r="M41" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P41">
         <v>0.5</v>
@@ -30977,28 +30980,28 @@
         <v>1</v>
       </c>
       <c r="AE41" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG41" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH41" t="s">
         <v>0</v>
       </c>
       <c r="AI41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK41" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL41">
         <v>0</v>
       </c>
       <c r="AM41" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN41" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -31033,28 +31036,28 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H42" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L42">
         <v>0.5</v>
       </c>
       <c r="M42" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P42">
         <v>0.5</v>
@@ -31087,28 +31090,28 @@
         <v>1</v>
       </c>
       <c r="AE42" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG42" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH42" t="s">
         <v>0</v>
       </c>
       <c r="AI42" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK42" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL42">
         <v>0</v>
       </c>
       <c r="AM42" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN42" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO42">
         <v>0</v>
@@ -31143,28 +31146,28 @@
         <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H43" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L43">
         <v>0.5</v>
       </c>
       <c r="M43" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P43">
         <v>0.5</v>
@@ -31197,28 +31200,28 @@
         <v>1</v>
       </c>
       <c r="AE43" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG43" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH43" t="s">
         <v>0</v>
       </c>
       <c r="AI43" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK43" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL43">
         <v>0</v>
       </c>
       <c r="AM43" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN43" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO43">
         <v>0</v>
@@ -31262,19 +31265,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L44">
         <v>0.5</v>
       </c>
       <c r="M44" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P44">
         <v>0.5</v>
@@ -31307,28 +31310,28 @@
         <v>1</v>
       </c>
       <c r="AE44" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG44" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH44" t="s">
         <v>0</v>
       </c>
       <c r="AI44" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK44" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL44">
         <v>0</v>
       </c>
       <c r="AM44" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN44" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO44">
         <v>0</v>
@@ -31363,28 +31366,28 @@
         <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H45" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L45">
         <v>0.5</v>
       </c>
       <c r="M45" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P45">
         <v>0.5</v>
@@ -31417,28 +31420,28 @@
         <v>1</v>
       </c>
       <c r="AE45" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG45" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH45" t="s">
         <v>0</v>
       </c>
       <c r="AI45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL45">
         <v>0</v>
       </c>
       <c r="AM45" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN45" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO45">
         <v>0</v>
@@ -31473,28 +31476,28 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H46" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L46">
         <v>0.5</v>
       </c>
       <c r="M46" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P46">
         <v>0.5</v>
@@ -31527,28 +31530,28 @@
         <v>1</v>
       </c>
       <c r="AE46" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG46" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH46" t="s">
         <v>0</v>
       </c>
       <c r="AI46" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK46" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL46">
         <v>0</v>
       </c>
       <c r="AM46" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN46" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -31583,28 +31586,28 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H47" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L47">
         <v>0.5</v>
       </c>
       <c r="M47" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P47">
         <v>0.5</v>
@@ -31637,28 +31640,28 @@
         <v>1</v>
       </c>
       <c r="AE47" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG47" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH47" t="s">
         <v>0</v>
       </c>
       <c r="AI47" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK47" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL47">
         <v>0</v>
       </c>
       <c r="AM47" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN47" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -31702,19 +31705,19 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L48">
         <v>0.5</v>
       </c>
       <c r="M48" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P48">
         <v>0.5</v>
@@ -31747,28 +31750,28 @@
         <v>1</v>
       </c>
       <c r="AE48" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG48" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH48" t="s">
         <v>0</v>
       </c>
       <c r="AI48" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK48" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL48">
         <v>0</v>
       </c>
       <c r="AM48" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN48" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO48">
         <v>0</v>
@@ -31803,28 +31806,28 @@
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H49" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L49">
         <v>0.5</v>
       </c>
       <c r="M49" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P49">
         <v>0.5</v>
@@ -31857,28 +31860,28 @@
         <v>1</v>
       </c>
       <c r="AE49" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG49" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH49" t="s">
         <v>0</v>
       </c>
       <c r="AI49" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK49" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL49">
         <v>0</v>
       </c>
       <c r="AM49" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN49" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO49">
         <v>0</v>
@@ -31913,28 +31916,28 @@
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H50" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L50">
         <v>0.5</v>
       </c>
       <c r="M50" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P50">
         <v>0.5</v>
@@ -31967,28 +31970,28 @@
         <v>1</v>
       </c>
       <c r="AE50" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG50" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH50" t="s">
         <v>0</v>
       </c>
       <c r="AI50" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK50" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL50">
         <v>0</v>
       </c>
       <c r="AM50" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN50" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -32023,28 +32026,28 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H51" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L51">
         <v>0.5</v>
       </c>
       <c r="M51" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P51">
         <v>0.5</v>
@@ -32077,28 +32080,28 @@
         <v>1</v>
       </c>
       <c r="AE51" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG51" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH51" t="s">
         <v>0</v>
       </c>
       <c r="AI51" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK51" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL51">
         <v>0</v>
       </c>
       <c r="AM51" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN51" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -32142,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L52">
         <v>0.5</v>
       </c>
       <c r="M52" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P52">
         <v>0.5</v>
@@ -32187,28 +32190,28 @@
         <v>1</v>
       </c>
       <c r="AE52" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG52" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH52" t="s">
         <v>0</v>
       </c>
       <c r="AI52" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK52" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL52">
         <v>0</v>
       </c>
       <c r="AM52" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN52" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -32243,28 +32246,28 @@
         <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H53" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L53">
         <v>0.5</v>
       </c>
       <c r="M53" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P53">
         <v>0.5</v>
@@ -32297,28 +32300,28 @@
         <v>1</v>
       </c>
       <c r="AE53" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG53" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH53" t="s">
         <v>0</v>
       </c>
       <c r="AI53" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK53" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL53">
         <v>0</v>
       </c>
       <c r="AM53" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN53" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -32353,28 +32356,28 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H54" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L54">
         <v>0.5</v>
       </c>
       <c r="M54" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P54">
         <v>0.5</v>
@@ -32407,28 +32410,28 @@
         <v>1</v>
       </c>
       <c r="AE54" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG54" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH54" t="s">
         <v>0</v>
       </c>
       <c r="AI54" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK54" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL54">
         <v>0</v>
       </c>
       <c r="AM54" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN54" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -32463,28 +32466,28 @@
         <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H55" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L55">
         <v>0.5</v>
       </c>
       <c r="M55" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P55">
         <v>0.5</v>
@@ -32517,28 +32520,28 @@
         <v>1</v>
       </c>
       <c r="AE55" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG55" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH55" t="s">
         <v>0</v>
       </c>
       <c r="AI55" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK55" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL55">
         <v>0</v>
       </c>
       <c r="AM55" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN55" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO55">
         <v>0</v>
@@ -32582,19 +32585,19 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L56">
         <v>0.5</v>
       </c>
       <c r="M56" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P56">
         <v>0.5</v>
@@ -32627,28 +32630,28 @@
         <v>1</v>
       </c>
       <c r="AE56" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG56" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH56" t="s">
         <v>0</v>
       </c>
       <c r="AI56" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK56" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL56">
         <v>0</v>
       </c>
       <c r="AM56" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN56" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -32683,28 +32686,28 @@
         <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H57" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L57">
         <v>0.5</v>
       </c>
       <c r="M57" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P57">
         <v>0.5</v>
@@ -32737,28 +32740,28 @@
         <v>1</v>
       </c>
       <c r="AE57" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG57" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH57" t="s">
         <v>0</v>
       </c>
       <c r="AI57" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK57" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL57">
         <v>0</v>
       </c>
       <c r="AM57" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN57" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO57">
         <v>0</v>
@@ -32793,28 +32796,28 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H58" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L58">
         <v>0.5</v>
       </c>
       <c r="M58" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P58">
         <v>0.5</v>
@@ -32847,28 +32850,28 @@
         <v>1</v>
       </c>
       <c r="AE58" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG58" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH58" t="s">
         <v>0</v>
       </c>
       <c r="AI58" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK58" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL58">
         <v>0</v>
       </c>
       <c r="AM58" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN58" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -32903,28 +32906,28 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H59" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L59">
         <v>0.5</v>
       </c>
       <c r="M59" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P59">
         <v>0.5</v>
@@ -32957,28 +32960,28 @@
         <v>1</v>
       </c>
       <c r="AE59" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG59" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH59" t="s">
         <v>0</v>
       </c>
       <c r="AI59" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK59" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL59">
         <v>0</v>
       </c>
       <c r="AM59" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN59" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO59">
         <v>0</v>
@@ -33022,19 +33025,19 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L60">
         <v>0.5</v>
       </c>
       <c r="M60" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P60">
         <v>0.5</v>
@@ -33067,28 +33070,28 @@
         <v>1</v>
       </c>
       <c r="AE60" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH60" t="s">
         <v>0</v>
       </c>
       <c r="AI60" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK60" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL60">
         <v>0</v>
       </c>
       <c r="AM60" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO60">
         <v>0</v>
@@ -33123,28 +33126,28 @@
         <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H61" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L61">
         <v>0.5</v>
       </c>
       <c r="M61" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P61">
         <v>0.5</v>
@@ -33177,28 +33180,28 @@
         <v>1</v>
       </c>
       <c r="AE61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG61" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH61" t="s">
         <v>0</v>
       </c>
       <c r="AI61" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK61" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL61">
         <v>0</v>
       </c>
       <c r="AM61" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN61" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO61">
         <v>0</v>
@@ -33233,28 +33236,28 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H62" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L62">
         <v>0.5</v>
       </c>
       <c r="M62" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P62">
         <v>0.5</v>
@@ -33287,28 +33290,28 @@
         <v>1</v>
       </c>
       <c r="AE62" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG62" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH62" t="s">
         <v>0</v>
       </c>
       <c r="AI62" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK62" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL62">
         <v>0</v>
       </c>
       <c r="AM62" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN62" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO62">
         <v>0</v>
@@ -33343,28 +33346,28 @@
         <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H63" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L63">
         <v>0.5</v>
       </c>
       <c r="M63" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P63">
         <v>0.5</v>
@@ -33397,28 +33400,28 @@
         <v>1</v>
       </c>
       <c r="AE63" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG63" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH63" t="s">
         <v>0</v>
       </c>
       <c r="AI63" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK63" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL63">
         <v>0</v>
       </c>
       <c r="AM63" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN63" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO63">
         <v>0</v>
@@ -33462,19 +33465,19 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L64">
         <v>0.5</v>
       </c>
       <c r="M64" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P64">
         <v>0.5</v>
@@ -33507,28 +33510,28 @@
         <v>1</v>
       </c>
       <c r="AE64" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG64" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH64" t="s">
         <v>0</v>
       </c>
       <c r="AI64" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK64" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL64">
         <v>0</v>
       </c>
       <c r="AM64" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN64" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO64">
         <v>0</v>
@@ -33563,28 +33566,28 @@
         <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H65" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L65">
         <v>0.5</v>
       </c>
       <c r="M65" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P65">
         <v>0.5</v>
@@ -33617,28 +33620,28 @@
         <v>1</v>
       </c>
       <c r="AE65" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG65" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH65" t="s">
         <v>0</v>
       </c>
       <c r="AI65" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK65" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL65">
         <v>0</v>
       </c>
       <c r="AM65" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN65" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO65">
         <v>0</v>
@@ -33673,28 +33676,28 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H66" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L66">
         <v>0.5</v>
       </c>
       <c r="M66" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P66">
         <v>0.5</v>
@@ -33727,28 +33730,28 @@
         <v>1</v>
       </c>
       <c r="AE66" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG66" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH66" t="s">
         <v>0</v>
       </c>
       <c r="AI66" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK66" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL66">
         <v>0</v>
       </c>
       <c r="AM66" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN66" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO66">
         <v>0</v>
@@ -33783,28 +33786,28 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H67" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L67">
         <v>0.5</v>
       </c>
       <c r="M67" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P67">
         <v>0.5</v>
@@ -33837,28 +33840,28 @@
         <v>1</v>
       </c>
       <c r="AE67" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG67" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH67" t="s">
         <v>0</v>
       </c>
       <c r="AI67" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK67" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL67">
         <v>0</v>
       </c>
       <c r="AM67" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN67" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO67">
         <v>0</v>
@@ -33902,19 +33905,19 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L68">
         <v>0.5</v>
       </c>
       <c r="M68" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P68">
         <v>0.5</v>
@@ -33947,28 +33950,28 @@
         <v>1</v>
       </c>
       <c r="AE68" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG68" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH68" t="s">
         <v>0</v>
       </c>
       <c r="AI68" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK68" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL68">
         <v>0</v>
       </c>
       <c r="AM68" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN68" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -34003,28 +34006,28 @@
         <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H69" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L69">
         <v>0.5</v>
       </c>
       <c r="M69" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P69">
         <v>0.5</v>
@@ -34057,28 +34060,28 @@
         <v>1</v>
       </c>
       <c r="AE69" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG69" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH69" t="s">
         <v>0</v>
       </c>
       <c r="AI69" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK69" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL69">
         <v>0</v>
       </c>
       <c r="AM69" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN69" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO69">
         <v>0</v>
@@ -34113,28 +34116,28 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H70" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L70">
         <v>0.5</v>
       </c>
       <c r="M70" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P70">
         <v>0.5</v>
@@ -34167,28 +34170,28 @@
         <v>1</v>
       </c>
       <c r="AE70" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG70" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH70" t="s">
         <v>0</v>
       </c>
       <c r="AI70" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK70" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL70">
         <v>0</v>
       </c>
       <c r="AM70" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN70" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO70">
         <v>0</v>
@@ -34223,28 +34226,28 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H71" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L71">
         <v>0.5</v>
       </c>
       <c r="M71" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P71">
         <v>0.5</v>
@@ -34277,28 +34280,28 @@
         <v>1</v>
       </c>
       <c r="AE71" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG71" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH71" t="s">
         <v>0</v>
       </c>
       <c r="AI71" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK71" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL71">
         <v>0</v>
       </c>
       <c r="AM71" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN71" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -34342,19 +34345,19 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L72">
         <v>0.5</v>
       </c>
       <c r="M72" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P72">
         <v>0.5</v>
@@ -34387,28 +34390,28 @@
         <v>1</v>
       </c>
       <c r="AE72" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG72" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH72" t="s">
         <v>0</v>
       </c>
       <c r="AI72" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK72" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL72">
         <v>0</v>
       </c>
       <c r="AM72" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN72" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO72">
         <v>0</v>
@@ -34452,19 +34455,19 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L73">
         <v>0.5</v>
       </c>
       <c r="M73" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P73">
         <v>0.5</v>
@@ -34497,28 +34500,28 @@
         <v>1</v>
       </c>
       <c r="AE73" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG73" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH73" t="s">
         <v>0</v>
       </c>
       <c r="AI73" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK73" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL73">
         <v>0</v>
       </c>
       <c r="AM73" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN73" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO73">
         <v>0</v>
@@ -34553,28 +34556,28 @@
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H74" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L74">
         <v>0.5</v>
       </c>
       <c r="M74" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P74">
         <v>0.5</v>
@@ -34607,28 +34610,28 @@
         <v>1</v>
       </c>
       <c r="AE74" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG74" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH74" t="s">
         <v>0</v>
       </c>
       <c r="AI74" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK74" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL74">
         <v>0</v>
       </c>
       <c r="AM74" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN74" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -34672,19 +34675,19 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L75">
         <v>0.5</v>
       </c>
       <c r="M75" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P75">
         <v>0.5</v>
@@ -34717,28 +34720,28 @@
         <v>1</v>
       </c>
       <c r="AE75" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG75" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH75" t="s">
         <v>0</v>
       </c>
       <c r="AI75" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK75" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL75">
         <v>0</v>
       </c>
       <c r="AM75" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN75" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO75">
         <v>0</v>
@@ -34782,19 +34785,19 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L76">
         <v>0.5</v>
       </c>
       <c r="M76" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P76">
         <v>0.5</v>
@@ -34827,28 +34830,28 @@
         <v>1</v>
       </c>
       <c r="AE76" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG76" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH76" t="s">
         <v>0</v>
       </c>
       <c r="AI76" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK76" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL76">
         <v>0</v>
       </c>
       <c r="AM76" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN76" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO76">
         <v>0</v>
@@ -34892,19 +34895,19 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L77">
         <v>0.5</v>
       </c>
       <c r="M77" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P77">
         <v>0.5</v>
@@ -34937,28 +34940,28 @@
         <v>1</v>
       </c>
       <c r="AE77" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG77" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH77" t="s">
         <v>0</v>
       </c>
       <c r="AI77" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK77" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL77">
         <v>0</v>
       </c>
       <c r="AM77" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN77" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO77">
         <v>0</v>
@@ -35002,19 +35005,19 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L78">
         <v>0.5</v>
       </c>
       <c r="M78" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P78">
         <v>0.5</v>
@@ -35047,28 +35050,28 @@
         <v>1</v>
       </c>
       <c r="AE78" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG78" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH78" t="s">
         <v>0</v>
       </c>
       <c r="AI78" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK78" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL78">
         <v>0</v>
       </c>
       <c r="AM78" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN78" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO78">
         <v>0</v>
@@ -35112,19 +35115,19 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L79">
         <v>0.5</v>
       </c>
       <c r="M79" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P79">
         <v>0.5</v>
@@ -35157,28 +35160,28 @@
         <v>1</v>
       </c>
       <c r="AE79" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG79" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH79" t="s">
         <v>0</v>
       </c>
       <c r="AI79" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK79" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL79">
         <v>0</v>
       </c>
       <c r="AM79" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN79" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO79">
         <v>0</v>
@@ -35222,19 +35225,19 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L80">
         <v>0.5</v>
       </c>
       <c r="M80" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P80">
         <v>0.5</v>
@@ -35267,28 +35270,28 @@
         <v>1</v>
       </c>
       <c r="AE80" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG80" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH80" t="s">
         <v>0</v>
       </c>
       <c r="AI80" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK80" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL80">
         <v>0</v>
       </c>
       <c r="AM80" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN80" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO80">
         <v>0</v>
@@ -35332,19 +35335,19 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L81">
         <v>0.5</v>
       </c>
       <c r="M81" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P81">
         <v>0.5</v>
@@ -35377,28 +35380,28 @@
         <v>1</v>
       </c>
       <c r="AE81" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG81" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH81" t="s">
         <v>0</v>
       </c>
       <c r="AI81" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK81" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL81">
         <v>0</v>
       </c>
       <c r="AM81" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN81" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO81">
         <v>0</v>
@@ -35442,19 +35445,19 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L82">
         <v>0.5</v>
       </c>
       <c r="M82" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P82">
         <v>0.5</v>
@@ -35487,28 +35490,28 @@
         <v>1</v>
       </c>
       <c r="AE82" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG82" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH82" t="s">
         <v>0</v>
       </c>
       <c r="AI82" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK82" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL82">
         <v>0</v>
       </c>
       <c r="AM82" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN82" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO82">
         <v>0</v>
@@ -35552,19 +35555,19 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L83">
         <v>0.5</v>
       </c>
       <c r="M83" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P83">
         <v>0.5</v>
@@ -35597,28 +35600,28 @@
         <v>1</v>
       </c>
       <c r="AE83" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG83" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH83" t="s">
         <v>0</v>
       </c>
       <c r="AI83" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK83" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL83">
         <v>0</v>
       </c>
       <c r="AM83" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN83" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO83">
         <v>0</v>
@@ -35662,19 +35665,19 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L84">
         <v>0.5</v>
       </c>
       <c r="M84" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P84">
         <v>0.5</v>
@@ -35707,28 +35710,28 @@
         <v>1</v>
       </c>
       <c r="AE84" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG84" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH84" t="s">
         <v>0</v>
       </c>
       <c r="AI84" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK84" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL84">
         <v>0</v>
       </c>
       <c r="AM84" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN84" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO84">
         <v>0</v>
@@ -35772,19 +35775,19 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L85">
         <v>0.5</v>
       </c>
       <c r="M85" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P85">
         <v>0.5</v>
@@ -35817,28 +35820,28 @@
         <v>1</v>
       </c>
       <c r="AE85" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG85" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH85" t="s">
         <v>0</v>
       </c>
       <c r="AI85" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK85" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL85">
         <v>0</v>
       </c>
       <c r="AM85" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN85" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO85">
         <v>0</v>
@@ -35882,19 +35885,19 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L86">
         <v>0.5</v>
       </c>
       <c r="M86" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P86">
         <v>0.5</v>
@@ -35927,28 +35930,28 @@
         <v>1</v>
       </c>
       <c r="AE86" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG86" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH86" t="s">
         <v>0</v>
       </c>
       <c r="AI86" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK86" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL86">
         <v>0</v>
       </c>
       <c r="AM86" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN86" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO86">
         <v>0</v>
@@ -35992,19 +35995,19 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L87">
         <v>0.5</v>
       </c>
       <c r="M87" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P87">
         <v>0.5</v>
@@ -36037,28 +36040,28 @@
         <v>1</v>
       </c>
       <c r="AE87" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG87" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH87" t="s">
         <v>0</v>
       </c>
       <c r="AI87" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK87" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL87">
         <v>0</v>
       </c>
       <c r="AM87" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN87" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO87">
         <v>0</v>
@@ -36102,19 +36105,19 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L88">
         <v>0.5</v>
       </c>
       <c r="M88" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P88">
         <v>0.5</v>
@@ -36147,28 +36150,28 @@
         <v>1</v>
       </c>
       <c r="AE88" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG88" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH88" t="s">
         <v>0</v>
       </c>
       <c r="AI88" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK88" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL88">
         <v>0</v>
       </c>
       <c r="AM88" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN88" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO88">
         <v>0</v>
@@ -36212,19 +36215,19 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L89">
         <v>0.5</v>
       </c>
       <c r="M89" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N89">
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P89">
         <v>0.5</v>
@@ -36257,28 +36260,28 @@
         <v>1</v>
       </c>
       <c r="AE89" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG89" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH89" t="s">
         <v>0</v>
       </c>
       <c r="AI89" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK89" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL89">
         <v>0</v>
       </c>
       <c r="AM89" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN89" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO89">
         <v>0</v>
@@ -36322,19 +36325,19 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L90">
         <v>0.5</v>
       </c>
       <c r="M90" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P90">
         <v>0.5</v>
@@ -36367,28 +36370,28 @@
         <v>1</v>
       </c>
       <c r="AE90" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG90" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH90" t="s">
         <v>0</v>
       </c>
       <c r="AI90" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK90" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL90">
         <v>0</v>
       </c>
       <c r="AM90" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN90" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO90">
         <v>0</v>
@@ -36432,19 +36435,19 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L91">
         <v>0.5</v>
       </c>
       <c r="M91" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P91">
         <v>0.5</v>
@@ -36477,28 +36480,28 @@
         <v>1</v>
       </c>
       <c r="AE91" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG91" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH91" t="s">
         <v>0</v>
       </c>
       <c r="AI91" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL91">
         <v>0</v>
       </c>
       <c r="AM91" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN91" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO91">
         <v>0</v>
@@ -36542,19 +36545,19 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L92">
         <v>0.5</v>
       </c>
       <c r="M92" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P92">
         <v>0.5</v>
@@ -36587,28 +36590,28 @@
         <v>1</v>
       </c>
       <c r="AE92" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG92" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH92" t="s">
         <v>0</v>
       </c>
       <c r="AI92" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK92" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL92">
         <v>0</v>
       </c>
       <c r="AM92" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN92" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO92">
         <v>0</v>
@@ -36652,19 +36655,19 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L93">
         <v>0.5</v>
       </c>
       <c r="M93" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P93">
         <v>0.5</v>
@@ -36697,28 +36700,28 @@
         <v>1</v>
       </c>
       <c r="AE93" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG93" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH93" t="s">
         <v>0</v>
       </c>
       <c r="AI93" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK93" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL93">
         <v>0</v>
       </c>
       <c r="AM93" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN93" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO93">
         <v>0</v>
@@ -36762,19 +36765,19 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L94">
         <v>0.5</v>
       </c>
       <c r="M94" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P94">
         <v>0.5</v>
@@ -36807,28 +36810,28 @@
         <v>1</v>
       </c>
       <c r="AE94" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG94" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH94" t="s">
         <v>0</v>
       </c>
       <c r="AI94" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK94" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL94">
         <v>0</v>
       </c>
       <c r="AM94" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN94" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO94">
         <v>0</v>
@@ -36863,28 +36866,28 @@
         <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H95" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L95">
         <v>0.5</v>
       </c>
       <c r="M95" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P95">
         <v>0.5</v>
@@ -36917,28 +36920,28 @@
         <v>1</v>
       </c>
       <c r="AE95" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG95" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH95" t="s">
         <v>0</v>
       </c>
       <c r="AI95" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK95" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL95">
         <v>0</v>
       </c>
       <c r="AM95" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN95" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO95">
         <v>0</v>
@@ -36982,19 +36985,19 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L96">
         <v>0.5</v>
       </c>
       <c r="M96" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P96">
         <v>0.5</v>
@@ -37027,28 +37030,28 @@
         <v>1</v>
       </c>
       <c r="AE96" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG96" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH96" t="s">
         <v>0</v>
       </c>
       <c r="AI96" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK96" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL96">
         <v>0</v>
       </c>
       <c r="AM96" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN96" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO96">
         <v>0</v>
@@ -37092,19 +37095,19 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L97">
         <v>0.5</v>
       </c>
       <c r="M97" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P97">
         <v>0.5</v>
@@ -37137,28 +37140,28 @@
         <v>1</v>
       </c>
       <c r="AE97" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG97" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH97" t="s">
         <v>0</v>
       </c>
       <c r="AI97" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK97" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL97">
         <v>0</v>
       </c>
       <c r="AM97" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN97" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO97">
         <v>0</v>
@@ -37202,19 +37205,19 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L98">
         <v>0.5</v>
       </c>
       <c r="M98" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P98">
         <v>0.5</v>
@@ -37247,28 +37250,28 @@
         <v>1</v>
       </c>
       <c r="AE98" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG98" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH98" t="s">
         <v>0</v>
       </c>
       <c r="AI98" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK98" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL98">
         <v>0</v>
       </c>
       <c r="AM98" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN98" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO98">
         <v>0</v>
@@ -37312,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L99">
         <v>0.5</v>
       </c>
       <c r="M99" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P99">
         <v>0.5</v>
@@ -37357,28 +37360,28 @@
         <v>1</v>
       </c>
       <c r="AE99" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG99" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH99" t="s">
         <v>0</v>
       </c>
       <c r="AI99" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK99" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL99">
         <v>0</v>
       </c>
       <c r="AM99" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN99" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO99">
         <v>0</v>
@@ -37422,19 +37425,19 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L100">
         <v>0.5</v>
       </c>
       <c r="M100" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P100">
         <v>0.5</v>
@@ -37467,28 +37470,28 @@
         <v>1</v>
       </c>
       <c r="AE100" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG100" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH100" t="s">
         <v>0</v>
       </c>
       <c r="AI100" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK100" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL100">
         <v>0</v>
       </c>
       <c r="AM100" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN100" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO100">
         <v>0</v>
@@ -37532,19 +37535,19 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L101">
         <v>0.5</v>
       </c>
       <c r="M101" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P101">
         <v>0.5</v>
@@ -37577,28 +37580,28 @@
         <v>1</v>
       </c>
       <c r="AE101" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG101" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH101" t="s">
         <v>0</v>
       </c>
       <c r="AI101" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK101" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL101">
         <v>0</v>
       </c>
       <c r="AM101" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN101" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO101">
         <v>0</v>
@@ -37642,19 +37645,19 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L102">
         <v>0.5</v>
       </c>
       <c r="M102" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P102">
         <v>0.5</v>
@@ -37687,28 +37690,28 @@
         <v>1</v>
       </c>
       <c r="AE102" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG102" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH102" t="s">
         <v>0</v>
       </c>
       <c r="AI102" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK102" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL102">
         <v>0</v>
       </c>
       <c r="AM102" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN102" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO102">
         <v>0</v>
@@ -37752,19 +37755,19 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L103">
         <v>0.5</v>
       </c>
       <c r="M103" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P103">
         <v>0.5</v>
@@ -37797,28 +37800,28 @@
         <v>1</v>
       </c>
       <c r="AE103" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG103" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH103" t="s">
         <v>0</v>
       </c>
       <c r="AI103" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK103" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL103">
         <v>0</v>
       </c>
       <c r="AM103" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN103" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO103">
         <v>0</v>
@@ -37862,19 +37865,19 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L104">
         <v>0.5</v>
       </c>
       <c r="M104" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P104">
         <v>0.5</v>
@@ -37907,28 +37910,28 @@
         <v>1</v>
       </c>
       <c r="AE104" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG104" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH104" t="s">
         <v>0</v>
       </c>
       <c r="AI104" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK104" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL104">
         <v>0</v>
       </c>
       <c r="AM104" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN104" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO104">
         <v>0</v>
@@ -37972,19 +37975,19 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L105">
         <v>0.5</v>
       </c>
       <c r="M105" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P105">
         <v>0.5</v>
@@ -38017,28 +38020,28 @@
         <v>1</v>
       </c>
       <c r="AE105" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG105" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH105" t="s">
         <v>0</v>
       </c>
       <c r="AI105" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK105" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL105">
         <v>0</v>
       </c>
       <c r="AM105" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN105" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO105">
         <v>0</v>
@@ -38082,19 +38085,19 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L106">
         <v>0.5</v>
       </c>
       <c r="M106" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
       <c r="O106" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P106">
         <v>0.5</v>
@@ -38127,28 +38130,28 @@
         <v>1</v>
       </c>
       <c r="AE106" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG106" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH106" t="s">
         <v>0</v>
       </c>
       <c r="AI106" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK106" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL106">
         <v>0</v>
       </c>
       <c r="AM106" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN106" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO106">
         <v>0</v>
@@ -38192,19 +38195,19 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L107">
         <v>0.5</v>
       </c>
       <c r="M107" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N107">
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P107">
         <v>0.5</v>
@@ -38237,28 +38240,28 @@
         <v>1</v>
       </c>
       <c r="AE107" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG107" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH107" t="s">
         <v>0</v>
       </c>
       <c r="AI107" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK107" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL107">
         <v>0</v>
       </c>
       <c r="AM107" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN107" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO107">
         <v>0</v>
@@ -38302,19 +38305,19 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L108">
         <v>0.5</v>
       </c>
       <c r="M108" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N108">
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P108">
         <v>0.5</v>
@@ -38347,28 +38350,28 @@
         <v>1</v>
       </c>
       <c r="AE108" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG108" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH108" t="s">
         <v>0</v>
       </c>
       <c r="AI108" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK108" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL108">
         <v>0</v>
       </c>
       <c r="AM108" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN108" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO108">
         <v>0</v>
@@ -38412,19 +38415,19 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L109">
         <v>0.5</v>
       </c>
       <c r="M109" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N109">
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P109">
         <v>0.5</v>
@@ -38457,28 +38460,28 @@
         <v>1</v>
       </c>
       <c r="AE109" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG109" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH109" t="s">
         <v>0</v>
       </c>
       <c r="AI109" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK109" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL109">
         <v>0</v>
       </c>
       <c r="AM109" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN109" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO109">
         <v>0</v>
@@ -38522,19 +38525,19 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L110">
         <v>0.5</v>
       </c>
       <c r="M110" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P110">
         <v>0.5</v>
@@ -38567,28 +38570,28 @@
         <v>1</v>
       </c>
       <c r="AE110" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG110" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH110" t="s">
         <v>0</v>
       </c>
       <c r="AI110" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK110" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL110">
         <v>0</v>
       </c>
       <c r="AM110" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN110" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO110">
         <v>0</v>
@@ -38632,19 +38635,19 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L111">
         <v>0.5</v>
       </c>
       <c r="M111" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N111">
         <v>0</v>
       </c>
       <c r="O111" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P111">
         <v>0.5</v>
@@ -38677,28 +38680,28 @@
         <v>1</v>
       </c>
       <c r="AE111" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG111" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH111" t="s">
         <v>0</v>
       </c>
       <c r="AI111" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK111" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL111">
         <v>0</v>
       </c>
       <c r="AM111" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN111" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO111">
         <v>0</v>
@@ -38733,28 +38736,28 @@
         <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H112" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L112">
         <v>0.5</v>
       </c>
       <c r="M112" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N112">
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P112">
         <v>0.5</v>
@@ -38787,28 +38790,28 @@
         <v>1</v>
       </c>
       <c r="AE112" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG112" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH112" t="s">
         <v>0</v>
       </c>
       <c r="AI112" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK112" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL112">
         <v>0</v>
       </c>
       <c r="AM112" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN112" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO112">
         <v>0</v>
@@ -38843,28 +38846,28 @@
         <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H113" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L113">
         <v>0.5</v>
       </c>
       <c r="M113" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N113">
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P113">
         <v>0.5</v>
@@ -38897,28 +38900,28 @@
         <v>1</v>
       </c>
       <c r="AE113" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG113" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH113" t="s">
         <v>0</v>
       </c>
       <c r="AI113" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK113" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL113">
         <v>0</v>
       </c>
       <c r="AM113" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN113" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO113">
         <v>0</v>
@@ -38953,28 +38956,28 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H114" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L114">
         <v>0.5</v>
       </c>
       <c r="M114" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N114">
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P114">
         <v>0.5</v>
@@ -39007,28 +39010,28 @@
         <v>1</v>
       </c>
       <c r="AE114" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG114" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH114" t="s">
         <v>0</v>
       </c>
       <c r="AI114" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK114" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL114">
         <v>0</v>
       </c>
       <c r="AM114" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN114" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO114">
         <v>0</v>
@@ -39063,28 +39066,28 @@
         <v>50</v>
       </c>
       <c r="G115" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H115" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L115">
         <v>0.5</v>
       </c>
       <c r="M115" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P115">
         <v>0.5</v>
@@ -39117,28 +39120,28 @@
         <v>1</v>
       </c>
       <c r="AE115" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG115" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH115" t="s">
         <v>0</v>
       </c>
       <c r="AI115" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK115" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL115">
         <v>0</v>
       </c>
       <c r="AM115" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN115" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO115">
         <v>0</v>
@@ -39182,19 +39185,19 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L116">
         <v>0.5</v>
       </c>
       <c r="M116" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P116">
         <v>0.5</v>
@@ -39227,28 +39230,28 @@
         <v>1</v>
       </c>
       <c r="AE116" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG116" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH116" t="s">
         <v>0</v>
       </c>
       <c r="AI116" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK116" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL116">
         <v>0</v>
       </c>
       <c r="AM116" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN116" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO116">
         <v>0</v>
@@ -39292,19 +39295,19 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L117">
         <v>0.5</v>
       </c>
       <c r="M117" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N117">
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P117">
         <v>0.5</v>
@@ -39337,28 +39340,28 @@
         <v>1</v>
       </c>
       <c r="AE117" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG117" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH117" t="s">
         <v>0</v>
       </c>
       <c r="AI117" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK117" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL117">
         <v>0</v>
       </c>
       <c r="AM117" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN117" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO117">
         <v>0</v>
@@ -39393,28 +39396,28 @@
         <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H118" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L118">
         <v>0.5</v>
       </c>
       <c r="M118" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N118">
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P118">
         <v>0.5</v>
@@ -39447,28 +39450,28 @@
         <v>1</v>
       </c>
       <c r="AE118" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG118" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH118" t="s">
         <v>0</v>
       </c>
       <c r="AI118" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK118" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL118">
         <v>0</v>
       </c>
       <c r="AM118" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN118" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO118">
         <v>0</v>
@@ -39503,28 +39506,28 @@
         <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H119" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L119">
         <v>0.5</v>
       </c>
       <c r="M119" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P119">
         <v>0.5</v>
@@ -39557,28 +39560,28 @@
         <v>1</v>
       </c>
       <c r="AE119" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG119" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH119" t="s">
         <v>0</v>
       </c>
       <c r="AI119" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK119" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL119">
         <v>0</v>
       </c>
       <c r="AM119" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN119" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO119">
         <v>0</v>
@@ -39613,28 +39616,28 @@
         <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H120" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L120">
         <v>0.5</v>
       </c>
       <c r="M120" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N120">
         <v>0</v>
       </c>
       <c r="O120" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P120">
         <v>0.5</v>
@@ -39667,28 +39670,28 @@
         <v>1</v>
       </c>
       <c r="AE120" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG120" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH120" t="s">
         <v>0</v>
       </c>
       <c r="AI120" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK120" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL120">
         <v>0</v>
       </c>
       <c r="AM120" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN120" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO120">
         <v>0</v>
@@ -39723,28 +39726,28 @@
         <v>50</v>
       </c>
       <c r="G121" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H121" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L121">
         <v>0.5</v>
       </c>
       <c r="M121" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N121">
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P121">
         <v>0.5</v>
@@ -39777,28 +39780,28 @@
         <v>1</v>
       </c>
       <c r="AE121" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG121" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH121" t="s">
         <v>0</v>
       </c>
       <c r="AI121" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK121" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL121">
         <v>0</v>
       </c>
       <c r="AM121" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN121" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO121">
         <v>0</v>
@@ -39842,19 +39845,19 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L122">
         <v>0.5</v>
       </c>
       <c r="M122" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N122">
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P122">
         <v>0.5</v>
@@ -39887,28 +39890,28 @@
         <v>1</v>
       </c>
       <c r="AE122" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG122" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH122" t="s">
         <v>0</v>
       </c>
       <c r="AI122" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK122" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL122">
         <v>0</v>
       </c>
       <c r="AM122" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN122" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO122">
         <v>0</v>
@@ -39952,19 +39955,19 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L123">
         <v>0.5</v>
       </c>
       <c r="M123" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N123">
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P123">
         <v>0.5</v>
@@ -39997,28 +40000,28 @@
         <v>1</v>
       </c>
       <c r="AE123" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG123" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH123" t="s">
         <v>0</v>
       </c>
       <c r="AI123" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK123" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL123">
         <v>0</v>
       </c>
       <c r="AM123" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN123" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO123">
         <v>0</v>
@@ -40053,28 +40056,28 @@
         <v>20</v>
       </c>
       <c r="G124" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H124" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L124">
         <v>0.5</v>
       </c>
       <c r="M124" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P124">
         <v>0.5</v>
@@ -40107,28 +40110,28 @@
         <v>1</v>
       </c>
       <c r="AE124" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG124" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH124" t="s">
         <v>0</v>
       </c>
       <c r="AI124" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK124" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL124">
         <v>0</v>
       </c>
       <c r="AM124" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN124" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO124">
         <v>0</v>
@@ -40163,28 +40166,28 @@
         <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H125" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L125">
         <v>0.5</v>
       </c>
       <c r="M125" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P125">
         <v>0.5</v>
@@ -40217,28 +40220,28 @@
         <v>1</v>
       </c>
       <c r="AE125" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG125" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH125" t="s">
         <v>0</v>
       </c>
       <c r="AI125" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK125" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL125">
         <v>0</v>
       </c>
       <c r="AM125" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN125" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO125">
         <v>0</v>
@@ -40273,28 +40276,28 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H126" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L126">
         <v>0.5</v>
       </c>
       <c r="M126" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N126">
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P126">
         <v>0.5</v>
@@ -40327,28 +40330,28 @@
         <v>1</v>
       </c>
       <c r="AE126" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG126" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH126" t="s">
         <v>0</v>
       </c>
       <c r="AI126" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK126" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL126">
         <v>0</v>
       </c>
       <c r="AM126" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN126" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO126">
         <v>0</v>
@@ -40383,28 +40386,28 @@
         <v>50</v>
       </c>
       <c r="G127" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H127" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L127">
         <v>0.5</v>
       </c>
       <c r="M127" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N127">
         <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P127">
         <v>0.5</v>
@@ -40437,28 +40440,28 @@
         <v>1</v>
       </c>
       <c r="AE127" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG127" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH127" t="s">
         <v>0</v>
       </c>
       <c r="AI127" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK127" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL127">
         <v>0</v>
       </c>
       <c r="AM127" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN127" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO127">
         <v>0</v>
@@ -40502,19 +40505,19 @@
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L128">
         <v>0.5</v>
       </c>
       <c r="M128" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N128">
         <v>0</v>
       </c>
       <c r="O128" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P128">
         <v>0.5</v>
@@ -40547,28 +40550,28 @@
         <v>1</v>
       </c>
       <c r="AE128" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG128" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH128" t="s">
         <v>0</v>
       </c>
       <c r="AI128" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK128" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL128">
         <v>0</v>
       </c>
       <c r="AM128" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN128" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO128">
         <v>0</v>
@@ -40612,19 +40615,19 @@
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L129">
         <v>0.5</v>
       </c>
       <c r="M129" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N129">
         <v>0</v>
       </c>
       <c r="O129" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P129">
         <v>0.5</v>
@@ -40657,28 +40660,28 @@
         <v>1</v>
       </c>
       <c r="AE129" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG129" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH129" t="s">
         <v>0</v>
       </c>
       <c r="AI129" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK129" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL129">
         <v>0</v>
       </c>
       <c r="AM129" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN129" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO129">
         <v>0</v>
@@ -40713,28 +40716,28 @@
         <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H130" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L130">
         <v>0.5</v>
       </c>
       <c r="M130" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N130">
         <v>0</v>
       </c>
       <c r="O130" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P130">
         <v>0.5</v>
@@ -40767,28 +40770,28 @@
         <v>1</v>
       </c>
       <c r="AE130" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG130" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH130" t="s">
         <v>0</v>
       </c>
       <c r="AI130" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK130" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL130">
         <v>0</v>
       </c>
       <c r="AM130" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN130" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO130">
         <v>0</v>
@@ -40823,28 +40826,28 @@
         <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H131" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L131">
         <v>0.5</v>
       </c>
       <c r="M131" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N131">
         <v>0</v>
       </c>
       <c r="O131" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P131">
         <v>0.5</v>
@@ -40877,28 +40880,28 @@
         <v>1</v>
       </c>
       <c r="AE131" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG131" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH131" t="s">
         <v>0</v>
       </c>
       <c r="AI131" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK131" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL131">
         <v>0</v>
       </c>
       <c r="AM131" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN131" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO131">
         <v>0</v>
@@ -40933,28 +40936,28 @@
         <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H132" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="K132" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L132">
         <v>0.5</v>
       </c>
       <c r="M132" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N132">
         <v>0</v>
       </c>
       <c r="O132" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P132">
         <v>0.5</v>
@@ -40987,28 +40990,28 @@
         <v>1</v>
       </c>
       <c r="AE132" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG132" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH132" t="s">
         <v>0</v>
       </c>
       <c r="AI132" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK132" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL132">
         <v>0</v>
       </c>
       <c r="AM132" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN132" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO132">
         <v>0</v>
@@ -41043,28 +41046,28 @@
         <v>50</v>
       </c>
       <c r="G133" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H133" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L133">
         <v>0.5</v>
       </c>
       <c r="M133" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N133">
         <v>0</v>
       </c>
       <c r="O133" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P133">
         <v>0.5</v>
@@ -41097,28 +41100,28 @@
         <v>1</v>
       </c>
       <c r="AE133" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG133" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH133" t="s">
         <v>0</v>
       </c>
       <c r="AI133" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK133" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL133">
         <v>0</v>
       </c>
       <c r="AM133" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN133" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO133">
         <v>0</v>
@@ -41162,19 +41165,19 @@
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L134">
         <v>0.5</v>
       </c>
       <c r="M134" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N134">
         <v>0</v>
       </c>
       <c r="O134" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P134">
         <v>0.5</v>
@@ -41207,28 +41210,28 @@
         <v>1</v>
       </c>
       <c r="AE134" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG134" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH134" t="s">
         <v>0</v>
       </c>
       <c r="AI134" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK134" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL134">
         <v>0</v>
       </c>
       <c r="AM134" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN134" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO134">
         <v>0</v>
@@ -41272,19 +41275,19 @@
         <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L135">
         <v>0.5</v>
       </c>
       <c r="M135" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N135">
         <v>0</v>
       </c>
       <c r="O135" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P135">
         <v>0.5</v>
@@ -41317,28 +41320,28 @@
         <v>1</v>
       </c>
       <c r="AE135" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG135" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH135" t="s">
         <v>0</v>
       </c>
       <c r="AI135" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK135" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL135">
         <v>0</v>
       </c>
       <c r="AM135" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN135" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO135">
         <v>0</v>
@@ -41373,28 +41376,28 @@
         <v>20</v>
       </c>
       <c r="G136" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H136" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L136">
         <v>0.5</v>
       </c>
       <c r="M136" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N136">
         <v>0</v>
       </c>
       <c r="O136" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P136">
         <v>0.5</v>
@@ -41427,28 +41430,28 @@
         <v>1</v>
       </c>
       <c r="AE136" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG136" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH136" t="s">
         <v>0</v>
       </c>
       <c r="AI136" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK136" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL136">
         <v>0</v>
       </c>
       <c r="AM136" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN136" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO136">
         <v>0</v>
@@ -41483,28 +41486,28 @@
         <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H137" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L137">
         <v>0.5</v>
       </c>
       <c r="M137" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N137">
         <v>0</v>
       </c>
       <c r="O137" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P137">
         <v>0.5</v>
@@ -41537,28 +41540,28 @@
         <v>1</v>
       </c>
       <c r="AE137" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG137" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH137" t="s">
         <v>0</v>
       </c>
       <c r="AI137" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK137" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL137">
         <v>0</v>
       </c>
       <c r="AM137" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN137" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO137">
         <v>0</v>
@@ -41593,28 +41596,28 @@
         <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H138" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="K138" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L138">
         <v>0.5</v>
       </c>
       <c r="M138" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N138">
         <v>0</v>
       </c>
       <c r="O138" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P138">
         <v>0.5</v>
@@ -41647,28 +41650,28 @@
         <v>1</v>
       </c>
       <c r="AE138" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG138" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH138" t="s">
         <v>0</v>
       </c>
       <c r="AI138" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK138" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL138">
         <v>0</v>
       </c>
       <c r="AM138" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN138" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO138">
         <v>0</v>
@@ -41703,28 +41706,28 @@
         <v>50</v>
       </c>
       <c r="G139" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H139" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L139">
         <v>0.5</v>
       </c>
       <c r="M139" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N139">
         <v>0</v>
       </c>
       <c r="O139" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P139">
         <v>0.5</v>
@@ -41757,28 +41760,28 @@
         <v>1</v>
       </c>
       <c r="AE139" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG139" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH139" t="s">
         <v>0</v>
       </c>
       <c r="AI139" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK139" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL139">
         <v>0</v>
       </c>
       <c r="AM139" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN139" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO139">
         <v>0</v>
@@ -41822,19 +41825,19 @@
         <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L140">
         <v>0.5</v>
       </c>
       <c r="M140" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N140">
         <v>0</v>
       </c>
       <c r="O140" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P140">
         <v>0.5</v>
@@ -41867,28 +41870,28 @@
         <v>1</v>
       </c>
       <c r="AE140" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG140" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH140" t="s">
         <v>0</v>
       </c>
       <c r="AI140" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AK140" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL140">
         <v>0</v>
       </c>
       <c r="AM140" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN140" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO140">
         <v>0</v>

--- a/OpsAndMats/Model40.xlsx
+++ b/OpsAndMats/Model40.xlsx
@@ -10396,13 +10396,13 @@
         <v>8</v>
       </c>
       <c r="S101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T101" t="s">
         <v>484</v>
       </c>
       <c r="U101" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="V101">
         <v>0</v>

--- a/OpsAndMats/Model40.xlsx
+++ b/OpsAndMats/Model40.xlsx
@@ -953,7 +953,7 @@
     <t>7800511</t>
   </si>
   <si>
-    <t>9011983</t>
+    <t>9010980-187</t>
   </si>
   <si>
     <t>HHCS, 3/8-16, 2, Pl. Stl.</t>
